--- a/manual/subsidiaries_to_search_hb_gmbh_manual.xlsx
+++ b/manual/subsidiaries_to_search_hb_gmbh_manual.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihyu/Stigler Center Dropbox/Sih-Yu Wei/USInvestmentInNaziGermany/IdentifyingUS/comprehensive list/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865BFA8-9399-EC49-9366-C5F5EAB0940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45653E5-AD54-4447-B4EE-D506B8CB407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="760" windowWidth="22260" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="398">
+  <si>
+    <t>German subsidiary</t>
+  </si>
   <si>
     <t>firm_name</t>
   </si>
@@ -34,12 +37,21 @@
     <t>"Borvisk" Kunstseiden-Vertriebsgesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Borvisk-Kunstseiden Vertriebsgesellschaft</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
     <t>"Gluckauf" Deutsche Oel Gesellschaft Hersfeld &amp; Co., G.m.b.H.</t>
   </si>
   <si>
     <t>"Volta" Telephon &amp; Signalbau G.m.b.H.</t>
   </si>
   <si>
+    <t>Volta Telephon- und Signalbau</t>
+  </si>
+  <si>
     <t>A. B. P. Gefolgschoftsheime, G.m.b.H.</t>
   </si>
   <si>
@@ -49,51 +61,96 @@
     <t>Adrema Maschinenebau G.m.b.H.</t>
   </si>
   <si>
+    <t>„Adrema“ Maschinenbau-Gesellschaft</t>
+  </si>
+  <si>
     <t>Allgemeine Erdol Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Allgemeine Erdölgesellschaft</t>
+  </si>
+  <si>
     <t>Allgemeine Finanzierungs Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Allgemeine Finanzierungs - Gesellschaft</t>
+  </si>
+  <si>
     <t>Allgemeine Oel-Handels, GmbH. (Oelhag)</t>
   </si>
   <si>
+    <t>Allgemeine Oel-Handels-Gesellschaft</t>
+  </si>
+  <si>
     <t>Almco Waschereimaschinen, GmbH</t>
   </si>
   <si>
+    <t>Alinco Wäschereimaschinen</t>
+  </si>
+  <si>
     <t>Ambi-Budd Presswerk, G.m.b.H.</t>
   </si>
   <si>
+    <t>Ambi-Bud Preßwerk</t>
+  </si>
+  <si>
     <t>American Express Company mit Beschrankter Haftung</t>
   </si>
   <si>
+    <t>American Expreß Company</t>
+  </si>
+  <si>
     <t>Anker Kohlen &amp; Brikettwerke G.m.b.H.</t>
   </si>
   <si>
+    <t>Kohlen- u. Brikettvertrieb</t>
+  </si>
+  <si>
     <t>Artus Hanse Transport G.m.b.H.</t>
   </si>
   <si>
+    <t>Artus-Hansa Transportgesellschaft</t>
+  </si>
+  <si>
     <t>Associated Merchandising Corp. GmbH</t>
   </si>
   <si>
+    <t>Associated Merchandising Corporation</t>
+  </si>
+  <si>
     <t>Atreco Oel-Handels GmbH.</t>
   </si>
   <si>
     <t>B.K.S. Handelsgesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Rheinische Türschließerfabrik Boge &amp; Kasten</t>
+  </si>
+  <si>
     <t>Baruta Import and Export, GmbH</t>
   </si>
   <si>
+    <t>Baruta, Export &amp; Import</t>
+  </si>
+  <si>
     <t>Bates Maschinen GmbH</t>
   </si>
   <si>
+    <t>Bates Engineering Co.</t>
+  </si>
+  <si>
     <t>Bergwerkgesellschaft Georg von Giesche's Erben</t>
   </si>
   <si>
+    <t>Georg von Giesche’s Erben Handelsgesellschaft</t>
+  </si>
+  <si>
     <t>Berlin-Oberschoeneweide, Germany</t>
   </si>
   <si>
+    <t>Wohnhausbaugesellschaft Berlin-Oberschöneweide</t>
+  </si>
+  <si>
     <t>Bernauer &amp; Co.</t>
   </si>
   <si>
@@ -103,111 +160,210 @@
     <t>Betz &amp; Jay, GmbH</t>
   </si>
   <si>
+    <t>Betz &amp; Jay</t>
+  </si>
+  <si>
     <t>Born, Mehring &amp; Co, G.m.b.H.</t>
   </si>
   <si>
+    <t>Barr, Moering &amp; Co.</t>
+  </si>
+  <si>
+    <t>Branch-Dr. Deimel's Maschenleinen-Fabrik-(Deimel Linen-Mesh System Co. U.S.A.)</t>
+  </si>
+  <si>
+    <t>left_only</t>
+  </si>
+  <si>
     <t xml:space="preserve">British-American Tobacco (Deutschland) G.m.b.H. </t>
   </si>
   <si>
     <t>Carrier Lufttechnische Gesellschaft</t>
   </si>
   <si>
+    <t>Cärrier Lufttechnische Gesellschaft</t>
+  </si>
+  <si>
     <t>Cehapon Werk G.m.b.H.</t>
   </si>
   <si>
+    <t>Cehapon-Werk</t>
+  </si>
+  <si>
     <t>Chemische Werke Odin (Germany)</t>
   </si>
   <si>
+    <t>Chemische Werke Odin</t>
+  </si>
+  <si>
     <t>Comptometer G.m.b.H.</t>
   </si>
   <si>
+    <t>Comptometer</t>
+  </si>
+  <si>
     <t>Continale Cautchoucgesellschaft</t>
   </si>
   <si>
     <t>Continentale Crown Cork &amp; Seal Co., G.m.b.H., Frankenthal Germany</t>
   </si>
   <si>
+    <t>Continentale Crown-Cork Company</t>
+  </si>
+  <si>
     <t>Cosmo Montangesellschaft fuer metallurgische Interessen m.b.H.</t>
   </si>
   <si>
     <t>Creed Telegraph Apparate G.m.b.H.</t>
   </si>
   <si>
+    <t>Creed Telegraphenapparate</t>
+  </si>
+  <si>
     <t>Defaka, Deustche Familienkaufhaus G.m.b.H.</t>
   </si>
   <si>
+    <t>Defaka, Deutsches Familien-Kaufhaus</t>
+  </si>
+  <si>
     <t>Denver Chemical Mfg. Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>The Denver Chemical Manufacturing Company</t>
+  </si>
+  <si>
     <t>Deutsche American Shipping Co. (Bremen) G.m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche American Shipping Co.</t>
+  </si>
+  <si>
     <t>Deutsche Carborumdum Werke</t>
   </si>
   <si>
+    <t>Deutsche Carborundum-Werke</t>
+  </si>
+  <si>
     <t>Deutsche Geschaftmaschinen Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Geschäftsmaschinen-Gesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Goodrich Compagnie G.m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Goodrich Compagnie</t>
+  </si>
+  <si>
     <t>Deutsche Hollerith Maschinen Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Hollerith-Maschinen-Gesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Libby Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Libby Gesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Maizena G.m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Maizena</t>
+  </si>
+  <si>
     <t>Deutsche Norton-Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Norton-Gesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Royal Backpulver, Gesellschaft m.b.H, Berlin, Germany.</t>
   </si>
   <si>
+    <t>Deutsche Royal-Backpulver-Gesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Schollwerke G.m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Scholl-Werke für Fabrikate nach System Dr. Scholl</t>
+  </si>
+  <si>
     <t>Deutsche Standard Werke G. m. b. H.</t>
   </si>
   <si>
     <t>Deutsche Timken G.m.b.H., of Berlin</t>
   </si>
   <si>
+    <t>Deutsche Timken</t>
+  </si>
+  <si>
     <t>Deutsche Vereinigte Schuhmaschinen Gesellschaft</t>
   </si>
   <si>
+    <t>Deutsche Vereinigte Schuhmaschinen-Gesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Vertriebs Gesellschaft m.b.H. für Naturgetränke</t>
   </si>
   <si>
+    <t>Deutsche Vertriebs-Gesellschaft für Naturgetränke</t>
+  </si>
+  <si>
     <t>Deutsche Worthington Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Worthington Pumpen- und Maschinenbau</t>
+  </si>
+  <si>
     <t>Dietaphone Co. m.b.H.</t>
   </si>
   <si>
+    <t>Dictaphone Company</t>
+  </si>
+  <si>
     <t>Dorr Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Dorr</t>
+  </si>
+  <si>
     <t>Dorr-Oliver G.m.b.H., Berlin, Germany</t>
   </si>
   <si>
     <t>Dr. Erich F. Huth G.m.b.H.</t>
   </si>
   <si>
+    <t>Dr. Erich F. Huth</t>
+  </si>
+  <si>
     <t>Durer Scheifmittel, G.m.b.H.</t>
   </si>
   <si>
+    <t>Durex Schleifmittel</t>
+  </si>
+  <si>
     <t>Ebano Asphalt Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Ebano Asphalt</t>
+  </si>
+  <si>
+    <t>Eberhard Faber Kommanditgesellschaft</t>
+  </si>
+  <si>
     <t>Eisenhof G.m.b.H.</t>
   </si>
   <si>
     <t>Eisenlager G.m.b.H.</t>
   </si>
   <si>
+    <t>Eisenlager</t>
+  </si>
+  <si>
     <t>Elisabeth Arden G.m.b.H.</t>
   </si>
   <si>
@@ -217,15 +373,24 @@
     <t>Erdoelwerke Wathlingen, Wuerttembergische Mineralgesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Erdölwerke Wathlingen</t>
+  </si>
+  <si>
     <t>Erkensator G.m.b.H.</t>
   </si>
   <si>
+    <t>Erkensator</t>
+  </si>
+  <si>
     <t>Ethyl Gesellschaft m.b.H.</t>
   </si>
   <si>
     <t>Euphalt Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Euphalt</t>
+  </si>
+  <si>
     <t>Explora G.m.b.H.</t>
   </si>
   <si>
@@ -244,18 +409,30 @@
     <t>Fraenkischer Metallhandel G.m.b.H.</t>
   </si>
   <si>
+    <t>Fränkischer Metallhandel</t>
+  </si>
+  <si>
     <t>Francotype-Gesellschaft of Berlin</t>
   </si>
   <si>
+    <t>Francotyp</t>
+  </si>
+  <si>
     <t>Frederick Wirth &amp; Company G.m.b.H.</t>
   </si>
   <si>
+    <t>Frederick Wirth &amp; Co.</t>
+  </si>
+  <si>
     <t>Freidreichstrasse, 12, G.m.b.H.</t>
   </si>
   <si>
     <t>Frigidaire G.m.b.H.</t>
   </si>
   <si>
+    <t>Frigidaire</t>
+  </si>
+  <si>
     <t>Fuhr-Betrieb G.m.b.H.</t>
   </si>
   <si>
@@ -268,6 +445,9 @@
     <t>G. Hirsch &amp; Sohn, G.m.b.H. Nuremberg, Germany</t>
   </si>
   <si>
+    <t>G. Hirsch &amp; Sohn</t>
+  </si>
+  <si>
     <t>Gebrueder Boewen G.m.b.H.</t>
   </si>
   <si>
@@ -277,15 +457,24 @@
     <t>Gebrueder Hein G.m.b.H.</t>
   </si>
   <si>
+    <t>Gebrüder Hein</t>
+  </si>
+  <si>
     <t>Gemeinnutsige Opel - Wohnban - G.m.b.H.</t>
   </si>
   <si>
     <t>Gesellschaft Fur Telephon-und Telegraphenbeteilungen m.b.H.</t>
   </si>
   <si>
+    <t>Gesellschaft für Telephon- und Telegraphenbeteiligungen</t>
+  </si>
+  <si>
     <t>Gesellschaft fur Industriebeteiligungen m.b.H.</t>
   </si>
   <si>
+    <t>Gesellschaft für Industriebeteiligung</t>
+  </si>
+  <si>
     <t>Gesellschaft fur markt und schgerechte Werberatung</t>
   </si>
   <si>
@@ -301,6 +490,9 @@
     <t>Gluckskles Michgesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Glücksklee Milchgesellschaft</t>
+  </si>
+  <si>
     <t>H. A. Bender Bohne, of Mannheim, Germany</t>
   </si>
   <si>
@@ -310,63 +502,120 @@
     <t>H. K. Mccann Company, m.b.H.</t>
   </si>
   <si>
+    <t>H. K. Mc. Cann Company</t>
+  </si>
+  <si>
     <t>H. Westphal &amp; Co.</t>
   </si>
   <si>
+    <t>Heinrich Westphal &amp; Co.</t>
+  </si>
+  <si>
     <t>Hamburg-Amerikanische Mineralol-G.m.b.H.</t>
   </si>
   <si>
+    <t>Hamburg-Amerikanische Mineralöl-Gesellschaft</t>
+  </si>
+  <si>
     <t>Hanseatische Grundbitz Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Hanseatische Grundbesitz-Gesellschaft</t>
+  </si>
+  <si>
     <t>Harburger Bergbau G.m.b.H.</t>
   </si>
   <si>
+    <t>Harburger Bergbaugesellschaft</t>
+  </si>
+  <si>
     <t>Haskins &amp; Sells Revision-Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Haskins und Sells Revisions-Gesellschaft</t>
+  </si>
+  <si>
     <t>Hoffman Bugelmaschinen Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Hoffman - Bügelmaschinen</t>
+  </si>
+  <si>
     <t>Holm &amp; Molzen G.m.b.H.</t>
   </si>
   <si>
+    <t>Kohlenhandel Holm &amp; Molzen</t>
+  </si>
+  <si>
     <t>Holzwarth Gasturbinen</t>
   </si>
   <si>
+    <t>Holzwarth-Gasturbinen</t>
+  </si>
+  <si>
     <t>Hoover G.m.b.H.</t>
   </si>
   <si>
+    <t>Hoover (Elektrische Apparate)</t>
+  </si>
+  <si>
     <t>Hudson Esser Motors Company M.H.</t>
   </si>
   <si>
+    <t>Hudson Essex Motors Company</t>
+  </si>
+  <si>
     <t>Hugo Stinnes G.m.b.H.</t>
   </si>
   <si>
+    <t>Hugo Stinnes</t>
+  </si>
+  <si>
     <t>Internationale Pressluft und Elektricitats Gesellschaft m.b.H. (Ipeg)</t>
   </si>
   <si>
+    <t>Internationale Preßluft- und Elektricitäts-Gesellschaft</t>
+  </si>
+  <si>
     <t>Intertype Fabrik G.m.b.H.</t>
   </si>
   <si>
+    <t>Intertype Fabrik</t>
+  </si>
+  <si>
     <t>Intertype Setzmaschinen G.m.b.H.</t>
   </si>
   <si>
+    <t>Intertype-Setzmaschinen</t>
+  </si>
+  <si>
     <t>Iris Type G.m.b.H.</t>
   </si>
   <si>
+    <t>Iristype</t>
+  </si>
+  <si>
     <t>J. E. Bernard &amp; Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>J. E. Bernard &amp; Co.</t>
+  </si>
+  <si>
     <t>Jacob Trefz &amp; Soehne</t>
   </si>
   <si>
     <t>Jahresuhren Fabrik G.m.b.H.</t>
   </si>
   <si>
+    <t>Jahresuhrenfabrik Aug. Schatz &amp; Söhne</t>
+  </si>
+  <si>
     <t>Jocca Werke G.m.b.H.</t>
   </si>
   <si>
+    <t>Jocca-Werke</t>
+  </si>
+  <si>
     <t>Johann Lorenz Michel G.m.b.H.</t>
   </si>
   <si>
@@ -376,75 +625,138 @@
     <t>Kardex System G.m.b.H.</t>
   </si>
   <si>
+    <t>Kardex-System</t>
+  </si>
+  <si>
     <t>Karl Fr. Tollner Nachrmittelfabrik G.m.b.H.</t>
   </si>
   <si>
+    <t>Karl Fr. Töllner Nährmittelfabrik</t>
+  </si>
+  <si>
     <t>Kayser Textile-Gesellschaft, m. b. H. in Saxony</t>
   </si>
   <si>
+    <t>„Kayser“ Textil-Gesellschaft</t>
+  </si>
+  <si>
     <t>Kleinerts Hanseatische, Gummiwerke Gesellschaft mit beschankter Haftung</t>
   </si>
   <si>
+    <t>J. B. Kleinert Rubber Company</t>
+  </si>
+  <si>
     <t>Kodak Gesellschaft m. b. H.</t>
   </si>
   <si>
     <t>Koenigsberger Kohlen &amp; Koks G.m.b.H.</t>
   </si>
   <si>
+    <t>Königsberger Kohlen- und Kokshandels-Gesellschaft</t>
+  </si>
+  <si>
     <t>Kohlenscheidungs-Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Kohlenscheidungs-Gesellschaft</t>
+  </si>
+  <si>
     <t>Kohler-Werke G.m.b.H.</t>
   </si>
   <si>
     <t>Kohleverkauf Ludwig Jung G.m.b.H.</t>
   </si>
   <si>
+    <t>Kohlenverkauf Ludwig Jung</t>
+  </si>
+  <si>
     <t>Korkfabrik, Frankenthal Bender &amp; Co., of Frankenthal, Germany</t>
   </si>
   <si>
+    <t>Korkfabrik Frankenthal, Bender &amp; Co.</t>
+  </si>
+  <si>
     <t>L. C. Smith &amp; Corona Schreihmaschinen G.m.b.H.</t>
   </si>
   <si>
+    <t>L. C. Smith und Corona Schreibmaschinen</t>
+  </si>
+  <si>
     <t>Lindor Werke G.m.b.H.</t>
   </si>
   <si>
+    <t>Linde Werkzeug</t>
+  </si>
+  <si>
     <t>Linotype, G.m.b.H.</t>
   </si>
   <si>
+    <t>Linotype</t>
+  </si>
+  <si>
     <t>Lorenz Radio Vertriebe G.m.b.H.</t>
   </si>
   <si>
+    <t>Lorenz-Radio-Vertriebs-Gesellschaft</t>
+  </si>
+  <si>
     <t>Ludwig Sudicates G.m.b.H.</t>
   </si>
   <si>
+    <t>Ludw. Sudikatis &amp; Co.</t>
+  </si>
+  <si>
     <t>M. Rast &amp; Sohn G.m.b.H.</t>
   </si>
   <si>
+    <t>M. Rast &amp; Sohn</t>
+  </si>
+  <si>
     <t>Maizenhaus Gesellschaft m.b.H.</t>
   </si>
   <si>
     <t>Maschinen-Export G.m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Maschinen Export-Gesellschaft</t>
+  </si>
+  <si>
     <t>Maschinenfabril EINSIEDEL G.m.b.H.</t>
   </si>
   <si>
+    <t>Maschinenfabrik Einsiedel</t>
+  </si>
+  <si>
     <t>Maschinenoel Import Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Maschinenöl Import</t>
+  </si>
+  <si>
     <t>Mathias Stinnes G.m.b.H.</t>
   </si>
   <si>
+    <t>Math. Stinnes</t>
+  </si>
+  <si>
     <t>Mecklenburgische Erdol G.m.b.H.</t>
   </si>
   <si>
+    <t>Mecklenburgische Erdölgesellschaft</t>
+  </si>
+  <si>
     <t>Mergenthaler Setzmaschinen-Fabrik, G.m.b.H.</t>
   </si>
   <si>
+    <t>Mergenthaler Setzmaschinenfabrik</t>
+  </si>
+  <si>
     <t>Metallkentor, G.m.b.H.</t>
   </si>
   <si>
+    <t>Metallkontor</t>
+  </si>
+  <si>
     <t>Metallpulver G.m.b.H.</t>
   </si>
   <si>
@@ -454,36 +766,63 @@
     <t>Metallwarenvertrieb G.m.b.H.</t>
   </si>
   <si>
+    <t>Metallwarenvertrieb</t>
+  </si>
+  <si>
     <t>Mix &amp; Genest Hansawerke , G.m.b.H.</t>
   </si>
   <si>
+    <t>Mix u. Genest Hansawerke</t>
+  </si>
+  <si>
     <t>Mondamin Gesellschaft</t>
   </si>
   <si>
+    <t>Mondamin</t>
+  </si>
+  <si>
     <t>Morris &amp; Co. G.m.b.H.</t>
   </si>
   <si>
     <t>Moto Meter Gesellschaft, m. b. H.</t>
   </si>
   <si>
+    <t>Moto-Meter</t>
+  </si>
+  <si>
     <t>Muelberger &amp; Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>H. Mülberger &amp; Co.</t>
+  </si>
+  <si>
     <t>National-Krupp Registrier-Kassen G.m.b.H.</t>
   </si>
   <si>
+    <t>National Registrier-Kassen</t>
+  </si>
+  <si>
     <t>Nationale Radiator Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Nationale Radiator</t>
+  </si>
+  <si>
     <t>Nickel Informationburo, G.m.b.H.</t>
   </si>
   <si>
+    <t>Nickel-Informationsbüro</t>
+  </si>
+  <si>
     <t>Nobel-Good-Group</t>
   </si>
   <si>
     <t>Nord-Europaeische Oel</t>
   </si>
   <si>
+    <t>Nordische Oelwerke</t>
+  </si>
+  <si>
     <t>Norddeustche Mineraloelwerke Stettin G.m.b.H.</t>
   </si>
   <si>
@@ -493,72 +832,135 @@
     <t>Nuernberger Kohlenhandles G.m.b.H.</t>
   </si>
   <si>
+    <t>Nürnberger Kohlenhandels-Gesellschaft</t>
+  </si>
+  <si>
     <t>Oelwerke Julius Schindler G.m.b.H.</t>
   </si>
   <si>
+    <t>Oelwerke Julius Schindler</t>
+  </si>
+  <si>
     <t>Oldenburgische Erdol Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Oldenburgische Erdölgesellschaft</t>
+  </si>
+  <si>
     <t>Oldenburgische Oelausbeutungesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Oldenburgische Oclausbeutungsgesellschaft</t>
+  </si>
+  <si>
     <t>Oppelener Lagerhaus Gesellschaft</t>
   </si>
   <si>
+    <t>Oppelner Verlade- und Lagerhaus-Gesellschaft Albert Koerber</t>
+  </si>
+  <si>
     <t>Oppenheimer Casing Co. m.b.H. Hamburg</t>
   </si>
   <si>
+    <t>Oppenheimer Casing Co.</t>
+  </si>
+  <si>
     <t>Osram G.m.b.H. Kommanditgesellschaft</t>
   </si>
   <si>
+    <t>Osram</t>
+  </si>
+  <si>
     <t>Ost-Oel G.m.b.H.</t>
   </si>
   <si>
+    <t>Ost-Oel</t>
+  </si>
+  <si>
     <t>Ostrhederei</t>
   </si>
   <si>
+    <t>Ostreederei</t>
+  </si>
+  <si>
     <t>Otis Aufzugswerke G.m.b.H.</t>
   </si>
   <si>
+    <t>Otis Aufzugswerke</t>
+  </si>
+  <si>
     <t>Palmolive-Binder &amp; Ketals G.m.b.H.</t>
   </si>
   <si>
+    <t>Palmolive</t>
+  </si>
+  <si>
     <t>Paramount Film Vertreib G. m. b. H., Berlin, Germany</t>
   </si>
   <si>
+    <t>Paramount Film Vertrieb</t>
+  </si>
+  <si>
     <t>Parfume Lentheric, G.m.b.H.</t>
   </si>
   <si>
+    <t>Parfums Lenth’eric</t>
+  </si>
+  <si>
     <t>Permutit Filter Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>Permutit-Filter-Co.</t>
+  </si>
+  <si>
     <t>Powers G.m.b.H.</t>
   </si>
   <si>
+    <t>Powers</t>
+  </si>
+  <si>
     <t>Privatanschlussbahn Borgsdorf-Birkenwerder G.m.b.H.</t>
   </si>
   <si>
+    <t>Privatanschlußbahn Borgsdorf-Birkenwerder</t>
+  </si>
+  <si>
     <t>Quaker Nahrmittel, G.m.b.H.</t>
   </si>
   <si>
+    <t>Quäker Nährmittel - Gesellschaft</t>
+  </si>
+  <si>
     <t>R. Schiffman &amp; Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>R. Schiffmann und Co.</t>
+  </si>
+  <si>
     <t>Rastatter Eisenhandel G.m.b.H.</t>
   </si>
   <si>
     <t>Remington Buromaschinen G.m.b.H.</t>
   </si>
   <si>
+    <t>Remington Büromaschinen</t>
+  </si>
+  <si>
     <t>Rheinische-Westfaelische Bergwerks Gesellschaft</t>
   </si>
   <si>
+    <t>Rheinisch-Westfälische Bergwerksgesellschaft</t>
+  </si>
+  <si>
     <t>Richard Hudnut G.m.b.H.</t>
   </si>
   <si>
     <t>Rohr &amp; Seilpost Anlagen, G.m.b.H.</t>
   </si>
   <si>
+    <t>Rohr- und Seilpost-Anlagen (Mix &amp; Genest)</t>
+  </si>
+  <si>
     <t>Rosskai, G.m.b.H.</t>
   </si>
   <si>
@@ -568,63 +970,111 @@
     <t>Royal Schreihmaschinen, G.m.b.H.</t>
   </si>
   <si>
+    <t>Royal Schreibmaschinen</t>
+  </si>
+  <si>
     <t>Rudolf Arndt Dextrinfabrik G.m.b.H.</t>
   </si>
   <si>
+    <t>Rudolf Arndt Dextrinfabrik</t>
+  </si>
+  <si>
     <t>Rudolf Mueller &amp; Soehne G.m.b.H.</t>
   </si>
   <si>
+    <t>Rudolf Müller &amp; Söhne</t>
+  </si>
+  <si>
     <t>Saatsuchwirtschaft C. Braune G.m.b.H.</t>
   </si>
   <si>
+    <t>C. Braune</t>
+  </si>
+  <si>
     <t>Schlafhorst Chemische Werke, G.m.b.H.</t>
   </si>
   <si>
     <t>Siegfried-Caragen Gesellschaft fuer Kraftfahrzeuge, m.b.H.</t>
   </si>
   <si>
+    <t>Siegfried Garagen, Gesellschaft für Kraftfahrzeuge</t>
+  </si>
+  <si>
     <t>Signal Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Signal</t>
+  </si>
+  <si>
     <t>Signode System G.m.b.H.</t>
   </si>
   <si>
+    <t>Signode System</t>
+  </si>
+  <si>
     <t>Spirella Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Spirella</t>
+  </si>
+  <si>
     <t>Stanley Works</t>
   </si>
   <si>
     <t>Steinberger Bros.</t>
   </si>
   <si>
+    <t>Steinberger Bros. Giove Corporation</t>
+  </si>
+  <si>
     <t>Steinberger Bros. Clove Corp. G.m.b.H.</t>
   </si>
   <si>
     <t>Suddeutsche Apparatefabrik Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Süddeutsche Apparatefabrik</t>
+  </si>
+  <si>
     <t>Suddeutsche Chemische Werke</t>
   </si>
   <si>
+    <t>Süddeutsche Chemische Werke</t>
+  </si>
+  <si>
     <t>Swift &amp; Company, G.m.b.H.</t>
   </si>
   <si>
+    <t>Swift &amp; Company</t>
+  </si>
+  <si>
     <t>Teerbaustoff Gesellschaft m.b.H.</t>
   </si>
   <si>
     <t>Tefag Radio Vertriebs G.m.b.H.</t>
   </si>
   <si>
+    <t>Tefag Radio Vertriebs - Gesellschaft</t>
+  </si>
+  <si>
     <t>Telmo Telephon und Telegraphen Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Telmo, Telefon- und Telegrafen-Gesellschaft</t>
+  </si>
+  <si>
     <t>The Atlantic Refining Company Germany GmbH</t>
   </si>
   <si>
+    <t>The Atlantic Refining Company of Germany</t>
+  </si>
+  <si>
     <t>The Brecht Corporation G.m.b.H.</t>
   </si>
   <si>
+    <t>The Brecht Corporation</t>
+  </si>
+  <si>
     <t>The Overseas Casing Co. m.b.H.</t>
   </si>
   <si>
@@ -634,15 +1084,27 @@
     <t>Tietgens &amp; Robertson (G.m.b.H.)</t>
   </si>
   <si>
+    <t>Tietgens &amp; Robertson</t>
+  </si>
+  <si>
     <t>Titan-Oel-Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Titan-Oel-Gesellschaft</t>
+  </si>
+  <si>
     <t>Titangesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Titangesellschaft</t>
+  </si>
+  <si>
     <t>Transport und Lagerhaus Gesellschaft, m.b.H.</t>
   </si>
   <si>
+    <t>Transport- und Lagerhaus-Gesellschaft</t>
+  </si>
+  <si>
     <t>Trubenis Lisensverwertungs, G.m.b.H.</t>
   </si>
   <si>
@@ -664,12 +1126,21 @@
     <t>W. R. Warner &amp; Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>W. R. Warner &amp; Co.</t>
+  </si>
+  <si>
     <t>Walter Kidde G.m.b.H.</t>
   </si>
   <si>
+    <t>Walter Kidde</t>
+  </si>
+  <si>
     <t>Waried Tankschiff Rhederei G.m.b.H.</t>
   </si>
   <si>
+    <t>Waried Tankschiff Rhederei</t>
+  </si>
+  <si>
     <t>Warner, W.R. and Co. G.m.b.H.</t>
   </si>
   <si>
@@ -679,526 +1150,70 @@
     <t>Welheim Kohlenhandel G.m.b.H.</t>
   </si>
   <si>
+    <t>Welheim Kohlenhandelsgesellsch.</t>
+  </si>
+  <si>
     <t>Werkhof G.m.b.H.</t>
   </si>
   <si>
+    <t>Werkhof</t>
+  </si>
+  <si>
     <t>Werola Krepp &amp; Buntpapierfabrik G.m.b.H.</t>
   </si>
   <si>
+    <t>Werola, Krepp- und Buntpapierfabrik</t>
+  </si>
+  <si>
     <t>West-Oel Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>West Oel</t>
+  </si>
+  <si>
     <t>Western Electric G.m.b.H.</t>
   </si>
   <si>
+    <t>Deutsche Western Electric</t>
+  </si>
+  <si>
     <t>Westinghouse Bremsen Gesellschaft m.b.H.</t>
   </si>
   <si>
+    <t>Westinghouse-Breinsen-Gesellschaft</t>
+  </si>
+  <si>
     <t>Wilheim Stern &amp; Co. G.m.b.H.</t>
   </si>
   <si>
+    <t>Wilhelm Stern &amp; Co.</t>
+  </si>
+  <si>
     <t>Zahnfabrik Wienand Soehne &amp; Co.</t>
   </si>
   <si>
+    <t>Zahnfabrik Wienand Söhne &amp; Co.</t>
+  </si>
+  <si>
     <t>Zinnwerke Wilheimsburg G.m.b.H.</t>
   </si>
   <si>
+    <t>Zinnwerke Wilhelmsburg</t>
+  </si>
+  <si>
     <t>Zoellner Werke G.m.b.H.</t>
   </si>
   <si>
     <t>Zuckerrubensaftfabrik</t>
   </si>
   <si>
-    <t>Borvisk-Kunstseiden Vertriebsgesellschaft</t>
-  </si>
-  <si>
-    <t>Volta Telephon- und Signalbau</t>
-  </si>
-  <si>
-    <t>„Adrema“ Maschinenbau-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Allgemeine Erdölgesellschaft</t>
-  </si>
-  <si>
-    <t>Allgemeine Finanzierungs - Gesellschaft</t>
-  </si>
-  <si>
-    <t>Allgemeine Oel-Handels-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Alinco Wäschereimaschinen</t>
-  </si>
-  <si>
-    <t>Ambi-Bud Preßwerk</t>
-  </si>
-  <si>
-    <t>American Expreß Company</t>
-  </si>
-  <si>
-    <t>Kohlen- u. Brikettvertrieb</t>
-  </si>
-  <si>
-    <t>Artus-Hansa Transportgesellschaft</t>
-  </si>
-  <si>
-    <t>Associated Merchandising Corporation</t>
-  </si>
-  <si>
-    <t>Rheinische Türschließerfabrik Boge &amp; Kasten</t>
-  </si>
-  <si>
-    <t>Baruta, Export &amp; Import</t>
-  </si>
-  <si>
-    <t>Bates Engineering Co.</t>
-  </si>
-  <si>
-    <t>Georg von Giesche’s Erben Handelsgesellschaft</t>
-  </si>
-  <si>
-    <t>Wohnhausbaugesellschaft Berlin-Oberschöneweide</t>
-  </si>
-  <si>
-    <t>Betz &amp; Jay</t>
-  </si>
-  <si>
-    <t>Barr, Moering &amp; Co.</t>
-  </si>
-  <si>
-    <t>Cärrier Lufttechnische Gesellschaft</t>
-  </si>
-  <si>
-    <t>Cehapon-Werk</t>
-  </si>
-  <si>
-    <t>Chemische Werke Odin</t>
-  </si>
-  <si>
-    <t>Comptometer</t>
-  </si>
-  <si>
-    <t>Continentale Crown-Cork Company</t>
-  </si>
-  <si>
-    <t>Creed Telegraphenapparate</t>
-  </si>
-  <si>
-    <t>Defaka, Deutsches Familien-Kaufhaus</t>
-  </si>
-  <si>
-    <t>The Denver Chemical Manufacturing Company</t>
-  </si>
-  <si>
-    <t>Deutsche American Shipping Co.</t>
-  </si>
-  <si>
-    <t>Deutsche Carborundum-Werke</t>
-  </si>
-  <si>
-    <t>Deutsche Geschäftsmaschinen-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Goodrich Compagnie</t>
-  </si>
-  <si>
-    <t>Deutsche Hollerith-Maschinen-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Libby Gesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Maizena</t>
-  </si>
-  <si>
-    <t>Deutsche Norton-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Royal-Backpulver-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Scholl-Werke für Fabrikate nach System Dr. Scholl</t>
-  </si>
-  <si>
-    <t>Deutsche Timken</t>
-  </si>
-  <si>
-    <t>Deutsche Vereinigte Schuhmaschinen-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Vertriebs-Gesellschaft für Naturgetränke</t>
-  </si>
-  <si>
-    <t>Worthington Pumpen- und Maschinenbau</t>
-  </si>
-  <si>
-    <t>Dictaphone Company</t>
-  </si>
-  <si>
-    <t>Dorr</t>
-  </si>
-  <si>
-    <t>Dr. Erich F. Huth</t>
-  </si>
-  <si>
-    <t>Durex Schleifmittel</t>
-  </si>
-  <si>
-    <t>Ebano Asphalt</t>
-  </si>
-  <si>
-    <t>Eisenlager</t>
-  </si>
-  <si>
-    <t>Erdölwerke Wathlingen</t>
-  </si>
-  <si>
-    <t>Erkensator</t>
-  </si>
-  <si>
-    <t>Euphalt</t>
-  </si>
-  <si>
-    <t>Fränkischer Metallhandel</t>
-  </si>
-  <si>
-    <t>Francotyp</t>
-  </si>
-  <si>
-    <t>Frederick Wirth &amp; Co.</t>
-  </si>
-  <si>
-    <t>Frigidaire</t>
-  </si>
-  <si>
-    <t>G. Hirsch &amp; Sohn</t>
-  </si>
-  <si>
-    <t>Gebrüder Hein</t>
-  </si>
-  <si>
-    <t>Gesellschaft für Telephon- und Telegraphenbeteiligungen</t>
-  </si>
-  <si>
-    <t>Gesellschaft für Industriebeteiligung</t>
-  </si>
-  <si>
-    <t>Glücksklee Milchgesellschaft</t>
-  </si>
-  <si>
-    <t>H. K. Mc. Cann Company</t>
-  </si>
-  <si>
-    <t>Heinrich Westphal &amp; Co.</t>
-  </si>
-  <si>
-    <t>Hamburg-Amerikanische Mineralöl-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Hanseatische Grundbesitz-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Harburger Bergbaugesellschaft</t>
-  </si>
-  <si>
-    <t>Haskins und Sells Revisions-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Hoffman - Bügelmaschinen</t>
-  </si>
-  <si>
-    <t>Kohlenhandel Holm &amp; Molzen</t>
-  </si>
-  <si>
-    <t>Holzwarth-Gasturbinen</t>
-  </si>
-  <si>
-    <t>Hoover (Elektrische Apparate)</t>
-  </si>
-  <si>
-    <t>Hudson Essex Motors Company</t>
-  </si>
-  <si>
-    <t>Hugo Stinnes</t>
-  </si>
-  <si>
-    <t>Internationale Preßluft- und Elektricitäts-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Intertype Fabrik</t>
-  </si>
-  <si>
-    <t>Intertype-Setzmaschinen</t>
-  </si>
-  <si>
-    <t>Iristype</t>
-  </si>
-  <si>
-    <t>J. E. Bernard &amp; Co.</t>
-  </si>
-  <si>
-    <t>Jahresuhrenfabrik Aug. Schatz &amp; Söhne</t>
-  </si>
-  <si>
-    <t>Jocca-Werke</t>
-  </si>
-  <si>
-    <t>Kardex-System</t>
-  </si>
-  <si>
-    <t>Karl Fr. Töllner Nährmittelfabrik</t>
-  </si>
-  <si>
-    <t>„Kayser“ Textil-Gesellschaft</t>
-  </si>
-  <si>
-    <t>J. B. Kleinert Rubber Company</t>
-  </si>
-  <si>
-    <t>Königsberger Kohlen- und Kokshandels-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Kohlenscheidungs-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Kohlenverkauf Ludwig Jung</t>
-  </si>
-  <si>
-    <t>Korkfabrik Frankenthal, Bender &amp; Co.</t>
-  </si>
-  <si>
-    <t>L. C. Smith und Corona Schreibmaschinen</t>
-  </si>
-  <si>
-    <t>Linde Werkzeug</t>
-  </si>
-  <si>
-    <t>Linotype</t>
-  </si>
-  <si>
-    <t>Lorenz-Radio-Vertriebs-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Ludw. Sudikatis &amp; Co.</t>
-  </si>
-  <si>
-    <t>M. Rast &amp; Sohn</t>
-  </si>
-  <si>
-    <t>Deutsche Maschinen Export-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Maschinenfabrik Einsiedel</t>
-  </si>
-  <si>
-    <t>Maschinenöl Import</t>
-  </si>
-  <si>
-    <t>Math. Stinnes</t>
-  </si>
-  <si>
-    <t>Mecklenburgische Erdölgesellschaft</t>
-  </si>
-  <si>
-    <t>Mergenthaler Setzmaschinenfabrik</t>
-  </si>
-  <si>
-    <t>Metallkontor</t>
-  </si>
-  <si>
-    <t>Metallwarenvertrieb</t>
-  </si>
-  <si>
-    <t>Mix u. Genest Hansawerke</t>
-  </si>
-  <si>
-    <t>Mondamin</t>
-  </si>
-  <si>
-    <t>Moto-Meter</t>
-  </si>
-  <si>
-    <t>H. Mülberger &amp; Co.</t>
-  </si>
-  <si>
-    <t>National Registrier-Kassen</t>
-  </si>
-  <si>
-    <t>Nationale Radiator</t>
-  </si>
-  <si>
-    <t>Nickel-Informationsbüro</t>
-  </si>
-  <si>
-    <t>Nordische Oelwerke</t>
-  </si>
-  <si>
-    <t>Nürnberger Kohlenhandels-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Oelwerke Julius Schindler</t>
-  </si>
-  <si>
-    <t>Oldenburgische Erdölgesellschaft</t>
-  </si>
-  <si>
-    <t>Oldenburgische Oclausbeutungsgesellschaft</t>
-  </si>
-  <si>
-    <t>Oppelner Verlade- und Lagerhaus-Gesellschaft Albert Koerber</t>
-  </si>
-  <si>
-    <t>Oppenheimer Casing Co.</t>
-  </si>
-  <si>
-    <t>Osram</t>
-  </si>
-  <si>
-    <t>Ost-Oel</t>
-  </si>
-  <si>
-    <t>Ostreederei</t>
-  </si>
-  <si>
-    <t>Otis Aufzugswerke</t>
-  </si>
-  <si>
-    <t>Palmolive</t>
-  </si>
-  <si>
-    <t>Paramount Film Vertrieb</t>
-  </si>
-  <si>
-    <t>Parfums Lenth’eric</t>
-  </si>
-  <si>
-    <t>Permutit-Filter-Co.</t>
-  </si>
-  <si>
-    <t>Powers</t>
-  </si>
-  <si>
-    <t>Privatanschlußbahn Borgsdorf-Birkenwerder</t>
-  </si>
-  <si>
-    <t>Quäker Nährmittel - Gesellschaft</t>
-  </si>
-  <si>
-    <t>R. Schiffmann und Co.</t>
-  </si>
-  <si>
-    <t>Remington Büromaschinen</t>
-  </si>
-  <si>
-    <t>Rheinisch-Westfälische Bergwerksgesellschaft</t>
-  </si>
-  <si>
-    <t>Rohr- und Seilpost-Anlagen (Mix &amp; Genest)</t>
-  </si>
-  <si>
-    <t>Royal Schreibmaschinen</t>
-  </si>
-  <si>
-    <t>Rudolf Arndt Dextrinfabrik</t>
-  </si>
-  <si>
-    <t>Rudolf Müller &amp; Söhne</t>
-  </si>
-  <si>
-    <t>C. Braune</t>
-  </si>
-  <si>
-    <t>Siegfried Garagen, Gesellschaft für Kraftfahrzeuge</t>
-  </si>
-  <si>
-    <t>Signal</t>
-  </si>
-  <si>
-    <t>Signode System</t>
-  </si>
-  <si>
-    <t>Spirella</t>
-  </si>
-  <si>
-    <t>Steinberger Bros. Giove Corporation</t>
-  </si>
-  <si>
-    <t>Süddeutsche Apparatefabrik</t>
-  </si>
-  <si>
-    <t>Süddeutsche Chemische Werke</t>
-  </si>
-  <si>
-    <t>Swift &amp; Company</t>
-  </si>
-  <si>
-    <t>Tefag Radio Vertriebs - Gesellschaft</t>
-  </si>
-  <si>
-    <t>Telmo, Telefon- und Telegrafen-Gesellschaft</t>
-  </si>
-  <si>
-    <t>The Atlantic Refining Company of Germany</t>
-  </si>
-  <si>
-    <t>The Brecht Corporation</t>
-  </si>
-  <si>
-    <t>Tietgens &amp; Robertson</t>
-  </si>
-  <si>
-    <t>Titan-Oel-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Titangesellschaft</t>
-  </si>
-  <si>
-    <t>Transport- und Lagerhaus-Gesellschaft</t>
-  </si>
-  <si>
-    <t>W. R. Warner &amp; Co.</t>
-  </si>
-  <si>
-    <t>Walter Kidde</t>
-  </si>
-  <si>
-    <t>Waried Tankschiff Rhederei</t>
-  </si>
-  <si>
-    <t>Welheim Kohlenhandelsgesellsch.</t>
-  </si>
-  <si>
-    <t>Werkhof</t>
-  </si>
-  <si>
-    <t>Werola, Krepp- und Buntpapierfabrik</t>
-  </si>
-  <si>
-    <t>West Oel</t>
-  </si>
-  <si>
-    <t>Deutsche Western Electric</t>
-  </si>
-  <si>
-    <t>Westinghouse-Breinsen-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Wilhelm Stern &amp; Co.</t>
-  </si>
-  <si>
-    <t>Zahnfabrik Wienand Söhne &amp; Co.</t>
-  </si>
-  <si>
-    <t>Zinnwerke Wilhelmsburg</t>
-  </si>
-  <si>
     <t>Zuckerrübensaft</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>German subsidiary</t>
+    <t>Dr. Deimels Maschenleinenfabrik</t>
+  </si>
+  <si>
+    <t>Eberhard Faber</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1231,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1266,20 +1279,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1291,10 +1290,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1306,6 +1305,20 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
       </border>
     </dxf>
   </dxfs>
@@ -1322,22 +1335,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A454BA09-2396-1B4C-B86D-9DA9420E8AE4}" name="Table1" displayName="Table1" ref="A1:D231" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:D231" xr:uid="{A454BA09-2396-1B4C-B86D-9DA9420E8AE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8170AC72-3E5E-DF4B-8E40-FCBFE415BF38}" name="Table1" displayName="Table1" ref="A1:D233" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:D233" xr:uid="{8170AC72-3E5E-DF4B-8E40-FCBFE415BF38}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C24B452-3936-834A-9B60-C10009C1E950}" name="German subsidiary"/>
-    <tableColumn id="2" xr3:uid="{B010D93D-8121-9B46-933D-A4B688932EC9}" name="firm_name"/>
-    <tableColumn id="3" xr3:uid="{11EFF716-8BD3-CA44-8007-79714D50BADA}" name="Present in HB GmbH"/>
-    <tableColumn id="4" xr3:uid="{931E4778-EEB2-2945-92CA-A47E47B21FF6}" name="_merge"/>
+    <tableColumn id="1" xr3:uid="{224AB9D4-D633-9649-A4AB-C6DC5AA48641}" name="German subsidiary"/>
+    <tableColumn id="2" xr3:uid="{5BB2E01D-6B43-8941-A36F-15CC9F4B194A}" name="firm_name"/>
+    <tableColumn id="3" xr3:uid="{C429FE75-4E85-A243-A2DB-37CAF70C187A}" name="Present in HB GmbH"/>
+    <tableColumn id="4" xr3:uid="{F5FAF4A1-0177-9045-8E93-22B0AA04CF38}" name="_merge"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1375,7 +1388,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1409,7 +1422,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1444,10 +1456,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1621,3077 +1632,3107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>396</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>140</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>152</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
-        <v>299</v>
+        <v>178</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B109" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>189</v>
+      </c>
+      <c r="B112" t="s">
+        <v>190</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>194</v>
+      </c>
+      <c r="B115" t="s">
+        <v>195</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>196</v>
+      </c>
+      <c r="B116" t="s">
+        <v>197</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>307</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>204</v>
+      </c>
+      <c r="B121" t="s">
+        <v>205</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="B124" t="s">
+        <v>210</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="B127" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="B129" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="B130" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="B131" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="B132" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>227</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>241</v>
+      </c>
+      <c r="B141" t="s">
+        <v>242</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>243</v>
+      </c>
+      <c r="B142" t="s">
+        <v>244</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>249</v>
+      </c>
+      <c r="B146" t="s">
+        <v>250</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="B147" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="B151" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>260</v>
+      </c>
+      <c r="B152" t="s">
+        <v>261</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>265</v>
+      </c>
+      <c r="B155" t="s">
+        <v>266</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>301</v>
+      </c>
+      <c r="B175" t="s">
+        <v>302</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="B176" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>306</v>
+      </c>
+      <c r="B178" t="s">
+        <v>307</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>308</v>
+      </c>
+      <c r="B179" t="s">
+        <v>309</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>311</v>
+      </c>
+      <c r="B182" t="s">
+        <v>312</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="B185" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="B186" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>319</v>
+      </c>
+      <c r="B187" t="s">
+        <v>320</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>321</v>
       </c>
       <c r="B188" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="B191" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="B193" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="B194" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="B196" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>338</v>
+      </c>
+      <c r="B199" t="s">
+        <v>339</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="B200" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>198</v>
-      </c>
-      <c r="B201" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>347</v>
+      </c>
+      <c r="B204" t="s">
+        <v>348</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>203</v>
-      </c>
-      <c r="B206" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="B209" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>357</v>
+      </c>
+      <c r="B210" t="s">
+        <v>358</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>359</v>
+      </c>
+      <c r="B211" t="s">
+        <v>360</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>361</v>
       </c>
       <c r="C212">
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="C215">
         <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>213</v>
-      </c>
-      <c r="B216" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>214</v>
-      </c>
-      <c r="B217" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="B218" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="B219" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>371</v>
+      </c>
+      <c r="B220" t="s">
+        <v>372</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
       <c r="B221" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>219</v>
-      </c>
-      <c r="B222" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="B223" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="B224" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>379</v>
       </c>
       <c r="B225" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="B226" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>383</v>
       </c>
       <c r="B227" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="B228" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="B229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>389</v>
+      </c>
+      <c r="B230" t="s">
+        <v>390</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>391</v>
       </c>
       <c r="B231" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>391</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>393</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>394</v>
+      </c>
+      <c r="B233" t="s">
+        <v>395</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/manual/subsidiaries_to_search_hb_gmbh_manual.xlsx
+++ b/manual/subsidiaries_to_search_hb_gmbh_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihyu/Stigler Center Dropbox/Sih-Yu Wei/USInvestmentInNaziGermany/IdentifyingUS/comprehensive list/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45653E5-AD54-4447-B4EE-D506B8CB407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE60584-B7C8-1842-B873-6D47F7171868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="399">
   <si>
     <t>German subsidiary</t>
   </si>
@@ -1214,6 +1214,9 @@
   </si>
   <si>
     <t>Eberhard Faber</t>
+  </si>
+  <si>
+    <t>Armco Eisengesellschaft</t>
   </si>
 </sst>
 </file>
@@ -1279,6 +1282,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1307,20 +1324,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1335,7 +1338,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8170AC72-3E5E-DF4B-8E40-FCBFE415BF38}" name="Table1" displayName="Table1" ref="A1:D233" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8170AC72-3E5E-DF4B-8E40-FCBFE415BF38}" name="Table1" displayName="Table1" ref="A1:D233" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D233" xr:uid="{8170AC72-3E5E-DF4B-8E40-FCBFE415BF38}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{224AB9D4-D633-9649-A4AB-C6DC5AA48641}" name="German subsidiary"/>
@@ -1635,7 +1638,7 @@
   <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1714,8 +1717,11 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>398</v>
+      </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
